--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1406989.629767094</v>
+        <v>1404291.113920551</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767341</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10597518.37394638</v>
+        <v>10598351.30324128</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>158.920983210273</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>130.1712092340063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>8.378707707885527</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.00402729331188</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9409413107341</v>
       </c>
       <c r="G5" t="n">
-        <v>53.88999219330065</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>78.16360657708299</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
         <v>130.8133087092504</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>110.3546857601079</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
@@ -993,7 +993,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>124.7867140295414</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>139.0053271860646</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>205.692292984949</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.4011663500979</v>
+        <v>395.633278621475</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8334918085936</v>
+        <v>411.8317058071198</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.7277944689661</v>
+        <v>76.65893964714655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484317</v>
+        <v>129.923934539847</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>207.9014082622944</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0681132513132</v>
+        <v>251.0679703711953</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>123.7541816074638</v>
+        <v>125.3225174300285</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344155</v>
+        <v>94.29913347719361</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271523</v>
+        <v>35.5804910533481</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365269</v>
+        <v>30.37232180742835</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2048826855192</v>
+        <v>137.1871329268862</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6828994016847</v>
+        <v>192.6790476831053</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8192629956679</v>
+        <v>225.8192001275736</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.391069382922576</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.995771438084437</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.97319914237113</v>
+        <v>16.91655863091781</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.1957963346153</v>
+        <v>21.12871188675666</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237993</v>
+        <v>19.53007201344965</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114081</v>
+        <v>96.1563689811188</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2509280199758</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.88726896589332</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.0543222645812</v>
+        <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035067</v>
+        <v>8.282546271489863</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>37.30359504419568</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63818461247365</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628539</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>199.9957970070971</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672529</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.9464125187632</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>106.5334944185043</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>59.73562477865413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261894</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428179</v>
+        <v>102.1854574632515</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446352719</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>159.017773750659</v>
       </c>
       <c r="X22" t="n">
-        <v>34.44047701880694</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.3300239197266</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>30.97191586387568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>35.63623515385339</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.15331591778379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.56071137692246</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>182.2777079560317</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>131.2944603446576</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>29.24923305751436</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>158.2081142387087</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>24.83266606353044</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>200.4120083539598</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>511.862417143343</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>322.4426321268584</v>
       </c>
       <c r="D2" t="n">
         <v>161.9163864599159</v>
@@ -4328,52 +4328,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.862417143343</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.862417143343</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262252</v>
+        <v>511.862417143343</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097404</v>
+        <v>511.862417143343</v>
       </c>
       <c r="W2" t="n">
-        <v>293.4024563932556</v>
+        <v>511.862417143343</v>
       </c>
       <c r="X2" t="n">
-        <v>161.9163864599159</v>
+        <v>511.862417143343</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>511.862417143343</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>590.3559321007992</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>400.9361470843146</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.454912819104</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.454912819104</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.454912819104</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>29.24882464404149</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.454912819104</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.796526038133</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.796526038133</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="D5" t="n">
-        <v>973.5308274313829</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="E5" t="n">
-        <v>587.7425748331386</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="F5" t="n">
-        <v>176.7566700435311</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
         <v>122.3223344947425</v>
@@ -4565,13 +4565,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4604,13 +4604,13 @@
         <v>1705.262284299213</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.262284299213</v>
+        <v>1352.493629029099</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.796526038133</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.796526038133</v>
+        <v>979.0278707680193</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.7044947829236</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="C6" t="n">
-        <v>422.235115227259</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="D6" t="n">
-        <v>422.235115227259</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="E6" t="n">
-        <v>422.235115227259</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="F6" t="n">
-        <v>275.700557254144</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1640.179861445061</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1445.469539919037</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1217.367950052301</v>
       </c>
       <c r="V6" t="n">
-        <v>1164.008688736726</v>
+        <v>982.2158418205584</v>
       </c>
       <c r="W6" t="n">
-        <v>909.7713320085245</v>
+        <v>727.9784850923568</v>
       </c>
       <c r="X6" t="n">
-        <v>701.9198318029917</v>
+        <v>520.1269848868239</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.9198318029917</v>
+        <v>312.3666861218701</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="C7" t="n">
-        <v>379.8799256405338</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D7" t="n">
-        <v>379.8799256405338</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E7" t="n">
-        <v>379.8799256405338</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F7" t="n">
-        <v>379.8799256405338</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G7" t="n">
-        <v>211.7470962355521</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
         <v>61.70688273934482</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>289.6964336373621</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>289.6964336373621</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>289.6964336373621</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470405991</v>
+        <v>61.70688273934482</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="C8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="D8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="E8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="F8" t="n">
-        <v>537.7736689383451</v>
+        <v>537.7458687218239</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7802428690587</v>
+        <v>121.7542466944302</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7802428690587</v>
+        <v>121.7542466944302</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313331</v>
+        <v>44.32097432357505</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494318</v>
+        <v>156.7390114960365</v>
       </c>
       <c r="K8" t="n">
-        <v>375.54448892294</v>
+        <v>375.9630260936709</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193441</v>
+        <v>684.8315631733794</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391405</v>
+        <v>1060.176760714418</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117915</v>
+        <v>1446.209244341826</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.772071623104</v>
+        <v>1797.393510791279</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291604</v>
+        <v>2062.620156411773</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535256</v>
+        <v>2213.621575041414</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656665</v>
+        <v>2216.048716178752</v>
       </c>
       <c r="S8" t="n">
-        <v>2082.593601537037</v>
+        <v>2084.812418663756</v>
       </c>
       <c r="T8" t="n">
-        <v>1872.584281856485</v>
+        <v>1874.810996176589</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.980127057179</v>
+        <v>1621.206985700635</v>
       </c>
       <c r="V8" t="n">
-        <v>1287.917239713609</v>
+        <v>1290.144098357064</v>
       </c>
       <c r="W8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="X8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
       <c r="Y8" t="n">
-        <v>935.1485844434944</v>
+        <v>937.3754430869501</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
       <c r="C9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
       <c r="D9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
       <c r="E9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
       <c r="F9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5115156642008</v>
+        <v>175.5125142534152</v>
       </c>
       <c r="H9" t="n">
-        <v>80.25054342840122</v>
+        <v>80.26086427645191</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313331</v>
+        <v>44.32097432357505</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848413</v>
+        <v>92.45854016584641</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910148</v>
+        <v>252.8881321538927</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047772</v>
+        <v>514.9280579783092</v>
       </c>
       <c r="M9" t="n">
-        <v>839.3423457618851</v>
+        <v>840.0731599628484</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013953</v>
+        <v>1188.232530213219</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376466</v>
+        <v>1484.510540339606</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618378</v>
+        <v>1702.966697553526</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952196</v>
+        <v>1799.079656946495</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.837250999011</v>
+        <v>1768.400544009698</v>
       </c>
       <c r="S9" t="n">
-        <v>1628.246460407578</v>
+        <v>1629.827682467389</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.617269092745</v>
+        <v>1435.202381777384</v>
       </c>
       <c r="U9" t="n">
-        <v>1205.517003440555</v>
+        <v>1207.102179628319</v>
       </c>
       <c r="V9" t="n">
-        <v>970.3648952088122</v>
+        <v>971.9500713965767</v>
       </c>
       <c r="W9" t="n">
-        <v>716.1275384806106</v>
+        <v>717.7127146683752</v>
       </c>
       <c r="X9" t="n">
-        <v>508.2760382750778</v>
+        <v>509.8612144628423</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.5157395101239</v>
+        <v>302.1009156978884</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.42206577148799</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="C10" t="n">
-        <v>61.42206577148799</v>
+        <v>506.3280877767373</v>
       </c>
       <c r="D10" t="n">
-        <v>61.42206577148799</v>
+        <v>356.2114483644016</v>
       </c>
       <c r="E10" t="n">
-        <v>61.42206577148799</v>
+        <v>208.2983547820085</v>
       </c>
       <c r="F10" t="n">
-        <v>61.42206577148799</v>
+        <v>61.40840728409809</v>
       </c>
       <c r="G10" t="n">
-        <v>61.42206577148799</v>
+        <v>61.40840728409809</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42206577148799</v>
+        <v>61.40840728409809</v>
       </c>
       <c r="I10" t="n">
-        <v>61.42206577148799</v>
+        <v>61.40840728409809</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313331</v>
+        <v>44.32097432357505</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226383</v>
+        <v>95.68230135470502</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264676</v>
+        <v>191.3129145707726</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524039</v>
+        <v>295.4002708199184</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014469</v>
+        <v>404.8701882900879</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359232</v>
+        <v>485.6702863757478</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095383</v>
+        <v>535.7467578018294</v>
       </c>
       <c r="Q10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="R10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="S10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="T10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="U10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="V10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="W10" t="n">
-        <v>513.6295184220481</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="X10" t="n">
-        <v>285.6399675240308</v>
+        <v>514.4046245828832</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.84738838050069</v>
+        <v>514.4046245828832</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>2330.350214717802</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1961.387697777391</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1603.12199917064</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1217.333746572396</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>806.3478417827882</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035376</v>
+        <v>391.8530338894379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907324</v>
+        <v>100.185212310365</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469207</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386842</v>
+        <v>317.3880320746712</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442034</v>
+        <v>723.2234501947041</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1263.599934653015</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878114</v>
+        <v>1896.542330458668</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765431</v>
+        <v>2544.34020432819</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687109</v>
+        <v>3142.702105990712</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856292</v>
+        <v>3618.88914460886</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882251</v>
+        <v>3928.313032718603</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234603</v>
+        <v>4022.893342111703</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455673</v>
+        <v>3925.76569667623</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971453</v>
+        <v>3722.316578060841</v>
       </c>
       <c r="U11" t="n">
-        <v>3461.926498718952</v>
+        <v>3468.832312715609</v>
       </c>
       <c r="V11" t="n">
-        <v>3461.926498718952</v>
+        <v>3446.723960224808</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>3093.955304954694</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2720.489546693614</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>2330.350214717802</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503053</v>
+        <v>88.82407519727434</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469207</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792136</v>
+        <v>202.7540031635561</v>
       </c>
       <c r="K12" t="n">
-        <v>196.8120623792136</v>
+        <v>489.93240390362</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0998698065243</v>
+        <v>922.4017448696457</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.413644050415</v>
+        <v>1446.429935688258</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.721951401483</v>
+        <v>1998.736238339038</v>
       </c>
       <c r="O12" t="n">
-        <v>2147.693504267233</v>
+        <v>2481.76880827124</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.961807107389</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826906</v>
+        <v>1095.204435748096</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6713627826905</v>
+        <v>926.2682528201888</v>
       </c>
       <c r="D13" t="n">
-        <v>245.9909637481493</v>
+        <v>776.1516134078529</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481493</v>
+        <v>628.2385198254598</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481493</v>
+        <v>481.3485723275494</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469207</v>
+        <v>313.9048461348011</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469207</v>
+        <v>169.9913866528135</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469207</v>
+        <v>80.45786684223407</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600405</v>
+        <v>143.5350566283904</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457714</v>
+        <v>377.0270927076824</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888933</v>
+        <v>731.3429449977133</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1115.308455583784</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1495.578740955086</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715852</v>
+        <v>1830.803602510217</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2094.125701226118</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2193.001193167698</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2114.821283191652</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906991</v>
+        <v>1927.650987192708</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457037</v>
+        <v>1927.650987192708</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897325</v>
+        <v>1927.650987192708</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691438</v>
+        <v>1927.650987192708</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544777</v>
+        <v>1725.635030619883</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564604</v>
+        <v>1497.645479721866</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129302</v>
+        <v>1276.852900578335</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364371</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>141.6400447072585</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>141.6400447072585</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>661.7095259921575</v>
+        <v>896.9079625687611</v>
       </c>
       <c r="C16" t="n">
-        <v>492.7733430642506</v>
+        <v>727.9717796408543</v>
       </c>
       <c r="D16" t="n">
-        <v>342.6567036519149</v>
+        <v>577.8551402285184</v>
       </c>
       <c r="E16" t="n">
-        <v>342.6567036519149</v>
+        <v>429.9420466461254</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519149</v>
+        <v>283.0520991482152</v>
       </c>
       <c r="G16" t="n">
         <v>175.4425088264937</v>
@@ -5431,28 +5431,28 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410167</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2071.440215683396</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1816.755727477509</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1527.338557440548</v>
       </c>
       <c r="X16" t="n">
-        <v>1064.150569965927</v>
+        <v>1299.349006542531</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.3579908223973</v>
+        <v>1078.556427399001</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>583.5439560698318</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1175.562310321959</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1797.658273721295</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2344.534748721489</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.9423506097376</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>196.0292570273446</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251934</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>301.0525042748308</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>791.784837118582</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057246</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1276.322725445818</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876686</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876686</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876686</v>
+        <v>414.402243376888</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>266.489149794495</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>119.5992022965848</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614385</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179083</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511903</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232834</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232835</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.966886455156</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.365421478097</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.290194822295</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.188536579447</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>746.1673476194635</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>598.2542540370705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>451.3643065391603</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>284.1682072540402</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>142.4563760962383</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154087</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>878.3568999154087</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253735</v>
+        <v>728.2402605030729</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>580.3271669206797</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003836</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797758</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T37" t="n">
-        <v>2012.943648562283</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U37" t="n">
-        <v>1723.868421906481</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V37" t="n">
-        <v>1469.183933700594</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W37" t="n">
-        <v>1179.766763663633</v>
+        <v>1327.139029956956</v>
       </c>
       <c r="X37" t="n">
-        <v>951.777212765616</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y37" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154087</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>770.5231737802874</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>475.7201326999841</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,16 +7430,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.550723916711</v>
+        <v>580.8993044876656</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597587</v>
       </c>
       <c r="D43" t="n">
-        <v>549.614540988804</v>
+        <v>411.9631215597587</v>
       </c>
       <c r="E43" t="n">
-        <v>549.614540988804</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S43" t="n">
-        <v>2220.111203833967</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T43" t="n">
-        <v>2000.509738856908</v>
+        <v>2044.506784258103</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.434512201106</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V43" t="n">
-        <v>1456.750023995219</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W43" t="n">
-        <v>1167.332853958259</v>
+        <v>1211.329899359453</v>
       </c>
       <c r="X43" t="n">
-        <v>939.3433030602412</v>
+        <v>983.3403484614355</v>
       </c>
       <c r="Y43" t="n">
-        <v>718.550723916711</v>
+        <v>762.5477693179054</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876686</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876686</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876686</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>432.9862109052755</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>286.0962634073651</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G46" t="n">
-        <v>118.900164122245</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258105</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614382</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179083</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>91.7048811837418</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>305.8649895042416</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>111.3118779740167</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034026</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>86.52720132949386</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613729138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.29152613729042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.00855845866265</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.974030610383</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>50.29152613729116</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864946</v>
+        <v>43.23559055967976</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729245</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>127.505224585932</v>
       </c>
       <c r="X22" t="n">
-        <v>191.2691783702302</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>10.85445046951781</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.4620467826935</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.999424436142</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.3900508477912</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>33.11252040078174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>50.86033664600879</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>35.12774237125651</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>9.00025250156628</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890548</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>22.81817176293586</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4620467826934</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>86.11098998263122</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843826.7365274647</v>
+        <v>853877.0996444076</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922678.5798115525</v>
+        <v>917653.3982530806</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922678.5798115527</v>
+        <v>917653.3982530804</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115529</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115524</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039827</v>
+        <v>466243.5802689508</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737694</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737848</v>
+        <v>12010.10621999288</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680422</v>
+        <v>431012.7433043248</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051355</v>
+        <v>143852.0300046383</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744871</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854458</v>
       </c>
       <c r="K3" t="n">
         <v>91259.95686487776</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199645</v>
+        <v>3011.079893817794</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329081</v>
+        <v>112568.2270402488</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848847</v>
+        <v>37822.10612282951</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.3658295527</v>
+        <v>170887.6532318877</v>
       </c>
       <c r="E4" t="n">
-        <v>15337.51904957362</v>
+        <v>15350.11425425461</v>
       </c>
       <c r="F4" t="n">
         <v>15430.10738565431</v>
       </c>
       <c r="G4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15430.10738565431</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26454,10 +26454,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672902</v>
+        <v>86134.07768055692</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214734</v>
+        <v>88006.19635167001</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.1616014118</v>
+        <v>-413728.1616014115</v>
       </c>
       <c r="C6" t="n">
-        <v>-138761.2100657704</v>
+        <v>-138761.2100657705</v>
       </c>
       <c r="D6" t="n">
-        <v>244559.9351715169</v>
+        <v>244119.2690327396</v>
       </c>
       <c r="E6" t="n">
-        <v>-49083.49597578047</v>
+        <v>-68313.10374488348</v>
       </c>
       <c r="F6" t="n">
-        <v>219581.2742691412</v>
+        <v>242204.6863740726</v>
       </c>
       <c r="G6" t="n">
-        <v>376740.2187398881</v>
+        <v>386056.7163787109</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.454975467</v>
+        <v>386056.7163787109</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.4549754669</v>
+        <v>377053.8035925823</v>
       </c>
       <c r="J6" t="n">
-        <v>338842.5102469223</v>
+        <v>338807.7723214865</v>
       </c>
       <c r="K6" t="n">
-        <v>296647.498110589</v>
+        <v>296612.7601851535</v>
       </c>
       <c r="L6" t="n">
-        <v>385034.1646252672</v>
+        <v>384861.6371562134</v>
       </c>
       <c r="M6" t="n">
-        <v>281267.9358425588</v>
+        <v>275304.4900097824</v>
       </c>
       <c r="N6" t="n">
-        <v>344125.0484169783</v>
+        <v>350050.6109272016</v>
       </c>
       <c r="O6" t="n">
-        <v>384884.1569982424</v>
+        <v>387872.7170500311</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.4549754669</v>
+        <v>387872.7170500313</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>862.9748695021891</v>
+        <v>863.4191373688026</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641663</v>
+        <v>554.0121790446881</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086508</v>
+        <v>1005.723335527926</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247797</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964504984</v>
+        <v>9.708472831118456</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923691</v>
+        <v>368.6091906849646</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218277</v>
+        <v>126.0127206626184</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,28 +27009,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35279543800311</v>
+        <v>11.89722231852493</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444845</v>
+        <v>451.7111564832377</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663198</v>
@@ -27039,16 +27039,16 @@
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800311</v>
+        <v>11.89722231852493</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444845</v>
+        <v>451.7111564832377</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800311</v>
+        <v>11.89722231852493</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444845</v>
+        <v>451.7111564832377</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>154.4219547980807</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>195.7620584104099</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.5598914444627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>217.4850607022054</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>146.9979079094021</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>37.06597233494232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>274.9351044309774</v>
       </c>
       <c r="G5" t="n">
-        <v>357.9807426503261</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>62.35381322820784</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>12.78829986375779</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>28.24149391256319</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27828,7 +27828,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>80.54276483076768</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.47487939161357</v>
+        <v>11.24276712023646</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236494</v>
+        <v>303.9270986360556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>11.73312545908171</v>
+        <v>10.1638340414832</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.4409107990147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>159.2510496605434</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4347951675532</v>
+        <v>166.4339940287773</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3912803373881</v>
+        <v>148.3841574853627</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6517721680248</v>
+        <v>108.6276797401108</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.321691302451</v>
+        <v>107.2856691898564</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8965517281904</v>
+        <v>196.882590064251</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2964387944122</v>
+        <v>221.2930157469153</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341465824415</v>
+        <v>286.2341028839628</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-5.193551289246964e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.72252784426691e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541461</v>
+        <v>3.471031708015284</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211775</v>
+        <v>35.54770347971154</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7480951014398</v>
+        <v>133.8169499232594</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855736</v>
+        <v>294.5994774281625</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434737</v>
+        <v>441.5282496284495</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350421</v>
+        <v>547.7548362626225</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687487</v>
+        <v>609.4827964000392</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324598</v>
+        <v>619.3448652404377</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380381</v>
+        <v>584.8297936938607</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577957</v>
+        <v>499.1386984022333</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922795</v>
+        <v>374.8323753589358</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135353</v>
+        <v>218.0371955286153</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781362</v>
+        <v>79.09613504639837</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038525</v>
+        <v>15.19444130183691</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233169</v>
+        <v>0.2776825366412227</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665086</v>
+        <v>1.857165691698934</v>
       </c>
       <c r="H9" t="n">
-        <v>17.92708172305491</v>
+        <v>17.93631075930286</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728477</v>
+        <v>63.9418889466519</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730817</v>
+        <v>175.4614305477489</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496425</v>
+        <v>299.8915318915774</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745837</v>
+        <v>403.2411735419111</v>
       </c>
       <c r="M9" t="n">
-        <v>470.321303878693</v>
+        <v>470.5634298659974</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076445</v>
+        <v>483.0178436493644</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762759</v>
+        <v>441.8669617438248</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394935</v>
+        <v>354.6371924788956</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848275</v>
+        <v>237.0655714526569</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403113</v>
+        <v>115.3071821565356</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831857</v>
+        <v>34.49603817695166</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136901</v>
+        <v>7.485681011716314</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069136</v>
+        <v>0.1221819534012457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905587</v>
+        <v>1.556985329681447</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8358921700515</v>
+        <v>13.84301502207688</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923348</v>
+        <v>46.82279518714753</v>
       </c>
       <c r="J10" t="n">
-        <v>110.022222297025</v>
+        <v>110.0788628084783</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252127</v>
+        <v>180.8933864848081</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006361</v>
+        <v>231.4812552873672</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889548</v>
+        <v>244.0645276336108</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955796</v>
+        <v>238.2612186775256</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200007</v>
+        <v>220.0727991444286</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255265</v>
+        <v>188.3102984189269</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948305</v>
+        <v>130.3762897426892</v>
       </c>
       <c r="R10" t="n">
-        <v>69.97170007471846</v>
+        <v>70.00772218731305</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1200463087819</v>
+        <v>27.13400797272121</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869324</v>
+        <v>6.652573681366182</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939575</v>
+        <v>0.08492647252807903</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485657</v>
+        <v>4.952877700718658</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543509</v>
+        <v>50.72365875248497</v>
       </c>
       <c r="I11" t="n">
-        <v>187.868117538026</v>
+        <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307187</v>
+        <v>420.3693037513706</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726067</v>
+        <v>630.0246168227915</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216985</v>
+        <v>781.6012477561603</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385744</v>
+        <v>869.6819865663157</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898403</v>
+        <v>883.7543503334826</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294422</v>
+        <v>834.5041726969615</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615149</v>
+        <v>712.2300044604694</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895597</v>
+        <v>534.8550718034824</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356987</v>
+        <v>311.1212038677687</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>112.8637006051265</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475348</v>
+        <v>21.68122213489594</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188525</v>
+        <v>0.3962302160574926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969427</v>
+        <v>2.650023196191122</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191526</v>
+        <v>25.59364507900373</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596493</v>
+        <v>91.23983372851013</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783046</v>
+        <v>250.3690774962849</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>427.9206316410901</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256426</v>
+        <v>575.3920979273749</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845341</v>
+        <v>671.455438789303</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147152</v>
+        <v>689.2268662760409</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431821</v>
+        <v>630.5079312446481</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205479</v>
+        <v>210.8877491630295</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.4240590009831</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697595</v>
+        <v>49.22301857837454</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.68145314605105</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.1743436313283634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.22169042763794</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737178</v>
+        <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691802</v>
+        <v>66.81229031478463</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619746</v>
+        <v>258.120033320117</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509181</v>
+        <v>330.3047750326444</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263715</v>
+        <v>348.2600731251</v>
       </c>
       <c r="N13" t="n">
-        <v>334.49937889731</v>
+        <v>339.9792269857226</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050065</v>
+        <v>314.0258433537701</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761901</v>
+        <v>268.7033586299559</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916783</v>
+        <v>186.0362775361188</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570628</v>
+        <v>99.8952805008841</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929618</v>
+        <v>38.71800499801755</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282692</v>
+        <v>9.492677281725744</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>176.1592645264424</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>344.3187317059974</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>348.185763266026</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588873</v>
+        <v>113.5535729014762</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984932</v>
+        <v>221.438398583469</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650548</v>
+        <v>311.9884212926352</v>
       </c>
       <c r="M8" t="n">
-        <v>378.822956941476</v>
+        <v>379.1365631727665</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358688</v>
+        <v>389.9318016438468</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163513</v>
+        <v>354.7315822721739</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025261</v>
+        <v>267.9057026469637</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.33381741783</v>
+        <v>152.5266854844863</v>
       </c>
       <c r="R8" t="n">
-        <v>2.339467799403138</v>
+        <v>2.451657714483161</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641498</v>
+        <v>48.62380388108218</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752835</v>
+        <v>162.0500929172184</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947096</v>
+        <v>264.6867937620369</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566747</v>
+        <v>328.429395943979</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243112</v>
+        <v>351.6761315660311</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318315</v>
+        <v>299.2707172993804</v>
       </c>
       <c r="P9" t="n">
-        <v>220.4803083251633</v>
+        <v>220.6627850645654</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.96181649880597</v>
+        <v>97.08379736663539</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467731</v>
+        <v>51.8801283142727</v>
       </c>
       <c r="L10" t="n">
-        <v>96.4774715193978</v>
+        <v>96.59657900612891</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413497</v>
+        <v>105.1387436860058</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303465</v>
+        <v>110.5756742122924</v>
       </c>
       <c r="O10" t="n">
-        <v>81.50302336815787</v>
+        <v>81.61626069258583</v>
       </c>
       <c r="P10" t="n">
-        <v>50.48540027637893</v>
+        <v>50.58229436977933</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040324</v>
+        <v>239.3233992246843</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276261</v>
+        <v>409.9347657778109</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517112</v>
+        <v>545.8348327861731</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584713</v>
+        <v>639.335753339043</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932494</v>
+        <v>654.3412867368918</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077554</v>
+        <v>604.4059612752748</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062453</v>
+        <v>480.9970087051999</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151102</v>
+        <v>312.5493819290328</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156655</v>
+        <v>95.53566605363659</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116379</v>
+        <v>123.5314508296183</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>290.0791926667311</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457684</v>
+        <v>436.8377181475008</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625157</v>
+        <v>529.3214048672846</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313819</v>
+        <v>557.8851541927077</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987377</v>
+        <v>487.9116868002037</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062177</v>
+        <v>76.91334174869921</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44228491496157</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701867</v>
+        <v>63.7143331173296</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360917</v>
+        <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112342</v>
+        <v>357.8948002929606</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882121</v>
+        <v>387.8439500869406</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765386</v>
+        <v>384.1113993649511</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190461</v>
+        <v>338.6109712678098</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410836</v>
+        <v>265.9819178948494</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998389</v>
+        <v>99.87423428442445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>49.32163785977574</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>210.3443242916671</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>210.344324291667</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096366</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191314</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899042</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066244</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
